--- a/FoxyPrideBOM Instructions.xlsx
+++ b/FoxyPrideBOM Instructions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlpenglowShop\Box\Products, Released\Instruction Downloads - BOMs - Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlpenglowShop\Documents\Kicad\Foxy_Pride_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043C2D07-271F-456D-8E8F-DEC1B2BA3641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C6585C-1CA7-4FFF-AEAC-930BD94A9A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>Qty Kit</t>
+  </si>
+  <si>
+    <t>*we give you extra of each color of LEDs.  It's up to you to decide how many of each color you want.</t>
   </si>
 </sst>
 </file>
@@ -1159,31 +1165,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="6"/>
-    <col min="14" max="17" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="6"/>
-    <col min="19" max="19" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="9.140625" style="6"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="6"/>
+    <col min="15" max="18" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="6"/>
+    <col min="20" max="20" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1193,20 +1200,23 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1219,30 +1229,33 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="3"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1255,32 +1268,35 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="8"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1293,30 +1309,33 @@
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="8"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="3"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1329,30 +1348,33 @@
       <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="8"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="3"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1363,30 +1385,33 @@
       <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="8"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="3"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1397,30 +1422,33 @@
       <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="3"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1431,30 +1459,33 @@
       <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="3"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1465,30 +1496,33 @@
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="8"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="3"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1499,30 +1533,33 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="3"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1533,30 +1570,33 @@
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="8"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="3"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1567,30 +1607,33 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="3"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1601,30 +1644,33 @@
       <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="8"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="3"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1637,32 +1683,35 @@
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="3"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="9"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1675,32 +1724,35 @@
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="3"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1713,30 +1765,33 @@
       <c r="D16" s="4">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="8"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="3"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="9"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1747,32 +1802,35 @@
       <c r="D17" s="4">
         <v>10</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="3"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1783,32 +1841,35 @@
         <v>18</v>
       </c>
       <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1821,30 +1882,33 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="8"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="3"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1857,223 +1921,235 @@
       <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="8"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="3"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="8"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="9"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="8"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="9"/>
+      <c r="R22" s="8"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="8"/>
+      <c r="N23" s="9"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="9"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="8"/>
+      <c r="N24" s="9"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
+      <c r="R24" s="8"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-      <c r="J25" s="9"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="8"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
+      <c r="R25" s="8"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J26" s="9"/>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="8"/>
+      <c r="N26" s="9"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
+      <c r="R26" s="8"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J27" s="9"/>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="8"/>
+      <c r="N27" s="9"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
+      <c r="R27" s="8"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J28" s="9"/>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="8"/>
+      <c r="N28" s="9"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="9"/>
+      <c r="R28" s="8"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J29" s="9"/>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="11"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="9"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
-    </row>
-    <row r="36" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="M36" s="13"/>
-    </row>
-    <row r="39" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J39" s="13"/>
-      <c r="K39" s="14"/>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="39" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K39" s="13"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K40" s="13"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
-      <c r="O40" s="14"/>
-    </row>
-    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J41" s="13"/>
-      <c r="K41" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="P40" s="14"/>
+    </row>
+    <row r="41" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K41" s="13"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
-      <c r="O41" s="14"/>
-    </row>
-    <row r="43" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J43" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="43" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K43" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
